--- a/current.xlsx
+++ b/current.xlsx
@@ -417,7 +417,7 @@
         <v>-24</v>
       </c>
       <c r="C5">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>683</v>
       </c>
       <c r="C6">
-        <v>671</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/current.xlsx
+++ b/current.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>revenue</t>
   </si>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +439,17 @@
         <v>45</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>155</v>
+      </c>
+      <c r="C8">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/current.xlsx
+++ b/current.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>155</v>
+        <v>1322</v>
       </c>
       <c r="C8">
-        <v>145</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
